--- a/test/data/normal-test-input.xlsx
+++ b/test/data/normal-test-input.xlsx
@@ -1,7 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
@@ -12,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Header 1</t>
   </si>
@@ -72,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -84,13 +80,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,18 +112,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="16"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -142,36 +137,6 @@
       </top>
       <bottom style="thin">
         <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -225,36 +190,6 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -297,106 +232,88 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="14"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="14"/>
       </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="14"/>
       </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="14"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -406,77 +323,68 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -499,11 +407,9 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -520,10 +426,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -700,11 +606,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -713,27 +622,27 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -990,10 +899,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1284,7 +1193,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1565,269 +1474,118 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G23"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
+    <row r="1" ht="20.7" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" ht="20.7" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="B2" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" ht="20.7" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s" s="7">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+      <c r="B3" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="8">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" ht="20.7" customHeight="1">
-      <c r="A4" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s" s="13">
+    <row r="4" ht="32.7" customHeight="1">
+      <c r="A4" s="11">
         <v>11</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" t="s" s="15">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s" s="13">
+      <c r="B4" t="s" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" ht="32.7" customHeight="1">
-      <c r="A5" s="18">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s" s="13">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
     </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/test/data/normal-test-input.xlsx
+++ b/test/data/normal-test-input.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Header 1</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>Gifs make me smile</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>Baz</t>
   </si>
 </sst>
 </file>
@@ -117,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -317,13 +329,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -385,6 +434,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -636,7 +694,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -666,7 +723,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -692,7 +748,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -718,7 +773,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -744,7 +798,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -770,7 +823,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -796,7 +848,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -822,7 +873,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -848,7 +898,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -874,7 +923,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -925,7 +973,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -951,7 +998,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -977,7 +1023,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1003,7 +1048,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1029,7 +1073,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1055,7 +1098,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1081,7 +1123,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1107,7 +1148,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1133,7 +1173,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1159,7 +1198,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1207,7 +1245,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1237,7 +1274,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1263,7 +1299,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1289,7 +1324,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1315,7 +1349,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1341,7 +1374,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1367,7 +1399,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1393,7 +1424,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1419,7 +1449,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1445,7 +1474,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1474,7 +1502,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1551,18 +1579,28 @@
       </c>
     </row>
     <row r="5" ht="14.7" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s" s="8">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" ht="14.7" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" ht="14.7" customHeight="1">
       <c r="A7" s="15"/>
@@ -1579,11 +1617,25 @@
       <c r="E8" s="17"/>
     </row>
     <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" ht="14.7" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
